--- a/src/main/resources/template/excel/export/StockReimburseDetail.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburseDetail.xlsx
@@ -163,18 +163,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(K3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(M3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(O3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>报损查询</t>
   </si>
   <si>
@@ -185,6 +173,18 @@
   </si>
   <si>
     <t>报损金额</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3:O3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d\ h:mm"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -351,14 +351,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +667,7 @@
   <dimension ref="A1:EJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,23 +686,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>18</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>19</v>
@@ -1008,7 +1008,7 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1062,15 +1062,15 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
